--- a/GMLA loading analysis/PMsystem_PRweb/(Output) Projects which WW ASIA SKU have different DPQE.xlsx
+++ b/GMLA loading analysis/PMsystem_PRweb/(Output) Projects which WW ASIA SKU have different DPQE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Project Name</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Descent S1 Buoy</t>
+  </si>
+  <si>
+    <t>Instinct 2X Solar</t>
   </si>
   <si>
     <t>Lo, Aalto</t>
@@ -405,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -436,10 +439,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2">
         <v>44970</v>
@@ -453,13 +456,44 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2">
         <v>44970</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>16020</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>16370</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45012</v>
       </c>
     </row>
   </sheetData>

--- a/GMLA loading analysis/PMsystem_PRweb/(Output) Projects which WW ASIA SKU have different DPQE.xlsx
+++ b/GMLA loading analysis/PMsystem_PRweb/(Output) Projects which WW ASIA SKU have different DPQE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Project Name</t>
   </si>
@@ -30,32 +30,11 @@
   <si>
     <t>Project ID</t>
   </si>
-  <si>
-    <t>Descent S1 Buoy</t>
-  </si>
-  <si>
-    <t>Instinct 2X Solar</t>
-  </si>
-  <si>
-    <t>Lo, Aalto</t>
-  </si>
-  <si>
-    <t>Kuo, Chris</t>
-  </si>
-  <si>
-    <t>Global</t>
-  </si>
-  <si>
-    <t>Asia</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -108,12 +87,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -431,71 +409,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>12799</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2">
-        <v>44970</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>14069</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2">
-        <v>44970</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>16020</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2">
-        <v>44998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>16370</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2">
-        <v>45012</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
